--- a/docs/drone_control/data-flow.xlsx
+++ b/docs/drone_control/data-flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmori/project/oss/hakoniwa-px4sim/docs/drone_control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BD6E44-B321-AF4F-8C9E-664B1C728A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3026B2DA-62CD-0945-ADF5-59A87AB0123A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7660" yWindow="-28300" windowWidth="51200" windowHeight="26800" xr2:uid="{04AAAEE0-CBA9-B946-A6FA-4BC89A99C738}"/>
   </bookViews>
@@ -748,13 +748,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>205170</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>155554</xdr:rowOff>
+      <xdr:rowOff>133145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>141670</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>121178</xdr:rowOff>
+      <xdr:rowOff>194597</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -769,8 +769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7712509" y="2972086"/>
-          <a:ext cx="1841500" cy="477721"/>
+          <a:off x="7712509" y="2949677"/>
+          <a:ext cx="1841500" cy="573549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -802,13 +802,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>Current EulerAngle.ψ</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
           </a:endParaRPr>
@@ -1257,13 +1257,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>869032</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>112710</xdr:rowOff>
+      <xdr:rowOff>184355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>922720</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>227327</xdr:rowOff>
+      <xdr:rowOff>94180</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1281,8 +1281,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15996371" y="3441339"/>
-          <a:ext cx="1006188" cy="3699294"/>
+          <a:off x="15996371" y="3512984"/>
+          <a:ext cx="1006188" cy="3494502"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3080,13 +3080,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>26599</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>227327</xdr:rowOff>
+      <xdr:rowOff>94180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>758965</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>55945</xdr:rowOff>
+      <xdr:rowOff>122901</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3101,8 +3101,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15153938" y="7140633"/>
-          <a:ext cx="1684866" cy="852812"/>
+          <a:off x="15153938" y="7007486"/>
+          <a:ext cx="1684866" cy="1052915"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3148,7 +3148,17 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>AngularControl</a:t>
+            <a:t>Attitude</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Control</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
@@ -3164,13 +3174,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>640433</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>214627</xdr:rowOff>
+      <xdr:rowOff>214628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>26599</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>140614</xdr:rowOff>
+      <xdr:rowOff>108541</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3188,8 +3198,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14815272" y="7127933"/>
-          <a:ext cx="338666" cy="438084"/>
+          <a:off x="14815272" y="7127934"/>
+          <a:ext cx="338666" cy="406010"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3220,13 +3230,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>699699</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>140614</xdr:rowOff>
+      <xdr:rowOff>108541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>26599</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>102510</xdr:rowOff>
+      <xdr:rowOff>102511</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3244,8 +3254,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14874538" y="7566017"/>
-          <a:ext cx="279400" cy="473993"/>
+          <a:off x="14874538" y="7533944"/>
+          <a:ext cx="279400" cy="506067"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3276,13 +3286,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>1969</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>150811</xdr:rowOff>
+      <xdr:rowOff>102420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>890971</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>112710</xdr:rowOff>
+      <xdr:rowOff>184355</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3297,8 +3307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16081808" y="2967343"/>
-          <a:ext cx="1841502" cy="473996"/>
+          <a:off x="16081808" y="2918952"/>
+          <a:ext cx="1841502" cy="594032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3330,7 +3340,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -3346,13 +3356,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>802070</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>155554</xdr:rowOff>
+      <xdr:rowOff>102420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>738569</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>121178</xdr:rowOff>
+      <xdr:rowOff>184355</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3367,8 +3377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14024409" y="2972086"/>
-          <a:ext cx="1841499" cy="477721"/>
+          <a:off x="14024409" y="2918952"/>
+          <a:ext cx="1841499" cy="594032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3400,7 +3410,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -3416,13 +3426,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>770320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>121178</xdr:rowOff>
+      <xdr:rowOff>184355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>869032</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>227327</xdr:rowOff>
+      <xdr:rowOff>94180</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3440,8 +3450,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14945159" y="3449807"/>
-          <a:ext cx="1051212" cy="3690826"/>
+          <a:off x="14945159" y="3512984"/>
+          <a:ext cx="1051212" cy="3494502"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3655,7 +3665,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>191699</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>140614</xdr:rowOff>
+      <xdr:rowOff>108541</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3674,7 +3684,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="16838804" y="7015817"/>
-          <a:ext cx="385234" cy="550200"/>
+          <a:ext cx="385234" cy="518127"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3705,13 +3715,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>758965</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>140614</xdr:rowOff>
+      <xdr:rowOff>108541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>200165</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>180759</xdr:rowOff>
+      <xdr:rowOff>177873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3729,8 +3739,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16838804" y="7566017"/>
-          <a:ext cx="393700" cy="552242"/>
+          <a:off x="16838804" y="7533944"/>
+          <a:ext cx="393700" cy="581429"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3759,15 +3769,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>136664</xdr:colOff>
+      <xdr:colOff>146906</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>149080</xdr:rowOff>
+      <xdr:rowOff>67144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>869029</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>235794</xdr:rowOff>
+      <xdr:colOff>879271</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3782,8 +3792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20026503" y="7062386"/>
-          <a:ext cx="1684865" cy="854860"/>
+          <a:off x="20036745" y="6980450"/>
+          <a:ext cx="1684865" cy="1038985"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3829,7 +3839,17 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>TorqueControl</a:t>
+            <a:t>AngularRate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Control</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
@@ -3849,9 +3869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>136664</xdr:colOff>
+      <xdr:colOff>146906</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>64415</xdr:rowOff>
+      <xdr:rowOff>74540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3870,7 +3890,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19065537" y="7015817"/>
-          <a:ext cx="960966" cy="474001"/>
+          <a:ext cx="971208" cy="484126"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3901,13 +3921,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>136664</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>64415</xdr:rowOff>
+      <xdr:rowOff>74540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>136664</xdr:colOff>
+      <xdr:colOff>146906</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>180759</xdr:rowOff>
+      <xdr:rowOff>177873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3925,8 +3945,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19074003" y="7489818"/>
-          <a:ext cx="952500" cy="628441"/>
+          <a:off x="19074003" y="7499943"/>
+          <a:ext cx="962742" cy="615430"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3957,13 +3977,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>77399</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>174414</xdr:rowOff>
+      <xdr:rowOff>173390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>136664</xdr:colOff>
+      <xdr:colOff>146906</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>64415</xdr:rowOff>
+      <xdr:rowOff>74540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3981,8 +4001,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19014738" y="6063527"/>
-          <a:ext cx="1011765" cy="1426291"/>
+          <a:off x="19014738" y="6062503"/>
+          <a:ext cx="1022007" cy="1437440"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4011,15 +4031,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>869029</xdr:colOff>
+      <xdr:colOff>879271</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>62298</xdr:rowOff>
+      <xdr:rowOff>62297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>191698</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>64415</xdr:rowOff>
+      <xdr:rowOff>74540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4037,8 +4057,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="21711368" y="7487701"/>
-          <a:ext cx="275169" cy="2117"/>
+          <a:off x="21721610" y="7487700"/>
+          <a:ext cx="264927" cy="12243"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4073,9 +4093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>26597</xdr:colOff>
+      <xdr:colOff>36839</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>149080</xdr:rowOff>
+      <xdr:rowOff>67144</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4094,7 +4114,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20833726" y="3515357"/>
-          <a:ext cx="35210" cy="3547029"/>
+          <a:ext cx="45452" cy="3465093"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4125,7 +4145,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>173420</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>121178</xdr:rowOff>
+      <xdr:rowOff>194597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -4149,8 +4169,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8633259" y="3449807"/>
-          <a:ext cx="814145" cy="2256137"/>
+          <a:off x="8633259" y="3523226"/>
+          <a:ext cx="814145" cy="2182718"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4181,7 +4201,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>631966</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>121178</xdr:rowOff>
+      <xdr:rowOff>194597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -4205,8 +4225,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7186805" y="3449807"/>
-          <a:ext cx="1446454" cy="3881836"/>
+          <a:off x="7186805" y="3523226"/>
+          <a:ext cx="1446454" cy="3808417"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5212,7 +5232,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/docs/drone_control/data-flow.xlsx
+++ b/docs/drone_control/data-flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmori/project/oss/hakoniwa-px4sim/docs/drone_control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3026B2DA-62CD-0945-ADF5-59A87AB0123A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F66139-E457-034B-A966-0F2C14F119FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7660" yWindow="-28300" windowWidth="51200" windowHeight="26800" xr2:uid="{04AAAEE0-CBA9-B946-A6FA-4BC89A99C738}"/>
   </bookViews>
@@ -903,16 +903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>145132</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657229</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>72879</xdr:rowOff>
+      <xdr:rowOff>83121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>877497</xdr:colOff>
+      <xdr:colOff>437094</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>153821</xdr:rowOff>
+      <xdr:rowOff>164063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -927,7 +927,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8604971" y="5705944"/>
+          <a:off x="8164568" y="5716186"/>
           <a:ext cx="1684865" cy="849087"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -990,13 +990,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>758965</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>244261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>145132</xdr:colOff>
+      <xdr:rowOff>246379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657229</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>246379</xdr:rowOff>
+      <xdr:rowOff>251617</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1013,9 +1013,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4456304" y="6133374"/>
-          <a:ext cx="4148667" cy="2118"/>
+        <a:xfrm>
+          <a:off x="4456304" y="6135492"/>
+          <a:ext cx="3708264" cy="5238"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1043,16 +1043,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>111266</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>725783</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>136383</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>77399</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>210397</xdr:rowOff>
+      <xdr:rowOff>208077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225323</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26042</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1067,8 +1067,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17143605" y="5769448"/>
-          <a:ext cx="1871133" cy="586110"/>
+          <a:off x="10138122" y="5841142"/>
+          <a:ext cx="1404540" cy="586110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1115,15 +1115,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>877497</xdr:colOff>
+      <xdr:colOff>437094</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>174414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>111266</xdr:colOff>
+      <xdr:rowOff>245084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>725783</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>244261</xdr:rowOff>
+      <xdr:rowOff>251617</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1141,8 +1141,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10289836" y="6063527"/>
-          <a:ext cx="6853769" cy="69847"/>
+          <a:off x="9849433" y="6134197"/>
+          <a:ext cx="288689" cy="6533"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1910,16 +1910,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>64698</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>791875</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>210393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1199</xdr:colOff>
+      <xdr:rowOff>220635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>728376</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>235794</xdr:rowOff>
+      <xdr:rowOff>246036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1934,7 +1934,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8524537" y="6867651"/>
+          <a:off x="8299214" y="6877893"/>
           <a:ext cx="1841501" cy="537498"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2006,15 +2006,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>73164</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>140611</xdr:rowOff>
+      <xdr:colOff>257519</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>79160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9665</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>162288</xdr:rowOff>
+      <xdr:colOff>194020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100836</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2029,7 +2029,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8533003" y="7822063"/>
+          <a:off x="8717358" y="8016660"/>
           <a:ext cx="1841501" cy="533773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2107,13 +2107,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>521898</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>223093</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>64698</xdr:colOff>
+      <xdr:rowOff>233336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>791875</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>81345</xdr:rowOff>
+      <xdr:rowOff>79483</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2131,8 +2131,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8029237" y="7136399"/>
-          <a:ext cx="495300" cy="626398"/>
+          <a:off x="8029237" y="7146642"/>
+          <a:ext cx="269977" cy="614293"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2163,13 +2163,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>521898</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>81345</xdr:rowOff>
+      <xdr:rowOff>79483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>73164</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>153311</xdr:rowOff>
+      <xdr:colOff>257519</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>89999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2187,8 +2187,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029237" y="7762797"/>
-          <a:ext cx="503766" cy="328014"/>
+          <a:off x="8029237" y="7760935"/>
+          <a:ext cx="688121" cy="522612"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2273,15 +2273,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>479564</xdr:colOff>
+      <xdr:colOff>715129</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>72879</xdr:rowOff>
+      <xdr:rowOff>83120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>263665</xdr:colOff>
+      <xdr:colOff>499230</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>153822</xdr:rowOff>
+      <xdr:rowOff>164063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2296,7 +2296,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10844403" y="7242234"/>
+          <a:off x="11079968" y="7252475"/>
           <a:ext cx="1689101" cy="849088"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2363,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>371615</xdr:colOff>
+      <xdr:colOff>607180</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>72879</xdr:rowOff>
+      <xdr:rowOff>83120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2384,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11672791" y="3523821"/>
-          <a:ext cx="16163" cy="3718413"/>
+          <a:ext cx="251728" cy="3728654"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2412,16 +2412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>728376</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>233336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1199</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>223093</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>479564</xdr:colOff>
+      <xdr:colOff>715129</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>244262</xdr:rowOff>
+      <xdr:rowOff>251616</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2439,8 +2439,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10366038" y="7136399"/>
-          <a:ext cx="478365" cy="533266"/>
+          <a:off x="10140715" y="7146642"/>
+          <a:ext cx="939253" cy="530377"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2469,15 +2469,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9665</xdr:colOff>
+      <xdr:colOff>194020</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>244262</xdr:rowOff>
+      <xdr:rowOff>251616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>479564</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>153311</xdr:rowOff>
+      <xdr:colOff>715129</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>89999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2495,8 +2495,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10374504" y="7669665"/>
-          <a:ext cx="469899" cy="421146"/>
+          <a:off x="10558859" y="7677019"/>
+          <a:ext cx="521109" cy="606528"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2695,15 +2695,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>263665</xdr:colOff>
+      <xdr:colOff>499230</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>214627</xdr:rowOff>
+      <xdr:rowOff>214628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>703931</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>244262</xdr:rowOff>
+      <xdr:rowOff>251616</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2721,8 +2721,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12533504" y="7127933"/>
-          <a:ext cx="440266" cy="541732"/>
+          <a:off x="12769069" y="7127934"/>
+          <a:ext cx="204701" cy="549085"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2751,15 +2751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>263665</xdr:colOff>
+      <xdr:colOff>499230</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>244262</xdr:rowOff>
+      <xdr:rowOff>251616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>763197</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>102510</xdr:rowOff>
+      <xdr:rowOff>102511</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2777,8 +2777,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12533504" y="7669665"/>
-          <a:ext cx="499532" cy="370345"/>
+          <a:off x="12769069" y="7677019"/>
+          <a:ext cx="263967" cy="362992"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3974,16 +3974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>77399</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225323</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>173390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>146906</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>74540</xdr:rowOff>
+      <xdr:rowOff>183632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>36839</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67144</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3995,16 +3995,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="3"/>
-          <a:endCxn id="284" idx="1"/>
+          <a:endCxn id="284" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19014738" y="6062503"/>
-          <a:ext cx="1022007" cy="1437440"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+          <a:off x="11542662" y="6072745"/>
+          <a:ext cx="9336516" cy="907705"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -4148,10 +4147,10 @@
       <xdr:rowOff>194597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>35065</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547162</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>72879</xdr:rowOff>
+      <xdr:rowOff>83121</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4170,7 +4169,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8633259" y="3523226"/>
-          <a:ext cx="814145" cy="2182718"/>
+          <a:ext cx="373742" cy="2192960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4886,6 +4885,1008 @@
           <a:ext cx="3874942" cy="1321673"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>378952</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>102414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>225319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23763520-1325-A441-B584-9072B1036348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076291" y="9064108"/>
+          <a:ext cx="7241048" cy="1403146"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Radio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1" baseline="0">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Control</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>225769</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239888</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4415186E-1366-254C-80DD-3674054CA8BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="87" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9694325" y="8482836"/>
+          <a:ext cx="14119" cy="1042164"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19254</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>310444</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>183444</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228ED327-6FB9-F14A-805F-185B96E796CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8528254" y="7366000"/>
+          <a:ext cx="291190" cy="2215444"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>793876</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>33878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8FC8F7-24C9-2448-92CB-A8376CD37F73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4554714" y="9485993"/>
+          <a:ext cx="1841501" cy="533772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Target Altitude</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>825626</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>835165</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12203</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313E6026-05EE-FE4E-A223-5F0EA64A886F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="0"/>
+          <a:endCxn id="64" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5475465" y="5492229"/>
+          <a:ext cx="9539" cy="3993764"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>322643</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>783531</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>225778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EEDA97-869E-134F-AB5F-4315C065C12D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4033865" y="10964333"/>
+          <a:ext cx="7177777" cy="1707445"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>PS4 Controller(Python)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>475554</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>479778</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>197556</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="454" name="直線矢印コネクタ 453">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B2E99B-69B9-6E44-AA86-81D46F545B2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10903665" y="6376042"/>
+          <a:ext cx="4224" cy="3473514"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>467259</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>52347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160001</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>183444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="457" name="円/楕円 456">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8740C990-0956-4F68-41E5-80E0D9BCA2BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5138037" y="11482347"/>
+          <a:ext cx="652297" cy="639097"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711835</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>212940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>404577</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>92086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="458" name="円/楕円 457">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E6AC81-EC1A-BF48-A4A8-7E8E72F098D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220835" y="11642940"/>
+          <a:ext cx="652298" cy="641146"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>795001</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>214169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>795001</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>175250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="460" name="直線矢印コネクタ 459">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7889C28-04D2-C6D5-F0B2-8B3080B70248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5465779" y="11136169"/>
+          <a:ext cx="0" cy="1485081"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>834740</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>112569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>856453</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>113798</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="461" name="直線矢印コネクタ 460">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F643A1E5-B73C-4648-9058-4FDE82B62929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4545962" y="11796569"/>
+          <a:ext cx="1940824" cy="1229"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>87078</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>81844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>87078</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>40877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="463" name="直線矢印コネクタ 462">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7B9E69-B538-3843-8B68-DB028087397E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9555634" y="11257844"/>
+          <a:ext cx="0" cy="1483033"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>126817</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>232196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>148530</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>233425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="464" name="直線矢印コネクタ 463">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1767AE1-D076-6F42-9AED-89371621A8B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8635817" y="11916196"/>
+          <a:ext cx="1940824" cy="1229"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>33878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>825625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>225778</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="465" name="直線矢印コネクタ 464">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D1F1A8-9B7C-C240-987E-F506E80C891A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="51" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5475111" y="9939878"/>
+          <a:ext cx="21292" cy="1207900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>493889</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>239889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>479778</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="470" name="直線矢印コネクタ 469">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390EC0AB-52F7-1146-A43F-D7B3F48797F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6124222" y="9891889"/>
+          <a:ext cx="4783667" cy="1834444"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>282222</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>239889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="476" name="直線矢印コネクタ 475">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9AAD3F-D62F-8147-A0E3-93158B926EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8791222" y="9637889"/>
+          <a:ext cx="762000" cy="1707444"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239888</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>733777</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28222</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="478" name="直線矢印コネクタ 477">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A68CBB1-D99B-4A47-9D96-29AB67E54377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9708444" y="9567333"/>
+          <a:ext cx="493889" cy="2398889"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -5231,8 +6232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA5866C-C199-A54E-AB69-CAF0AEF3B7A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/docs/drone_control/data-flow.xlsx
+++ b/docs/drone_control/data-flow.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmori/project/oss/hakoniwa-px4sim/docs/drone_control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F66139-E457-034B-A966-0F2C14F119FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9821F3F-9C33-A046-A24D-D9AFA3462ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7660" yWindow="-28300" windowWidth="51200" windowHeight="26800" xr2:uid="{04AAAEE0-CBA9-B946-A6FA-4BC89A99C738}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataFlow" sheetId="1" r:id="rId1"/>
+    <sheet name="Param" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +36,830 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+  <si>
+    <t>制御名</t>
+    <rPh sb="0" eb="3">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装クラス</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装関数</t>
+    <rPh sb="0" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AltitudeControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PositionControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HeadingControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpeedControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThrustControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AttitudeControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AngularRateControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータ名</t>
+    <rPh sb="5" eb="6">
+      <t>Mei</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HeadingController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_HEAD_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_HEAD_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_HEAD_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARAM_MAX_RRATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨー角制御</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">カク </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定値</t>
+    <rPh sb="0" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標ヨー角速度の上限値</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ジョウゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10度/sec</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PositionController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平位置制御</t>
+    <rPh sb="0" eb="4">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARAM_MAX_SPD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_POSX_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_POSX_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_POSX_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_POSY_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_POSY_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_POSY_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨー角制御Pパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨー角制御Iパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨー角制御Dパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X位置制御Pパラメータ</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">１ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X位置制御Iパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X位置制御Dパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y位置制御Pパラメータ</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">１ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y位置制御Iパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y位置制御Dパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XY方向の速度上限値</t>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20m/sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高度制御</t>
+    <rPh sb="0" eb="4">
+      <t>コウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARAM_MAX_POWER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_ALT_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_ALT_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_ALT_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高度制御Pパラメータ</t>
+    <rPh sb="0" eb="2">
+      <t>コウド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高度制御Iパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高度制御Dパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推力上限値</t>
+    <rPh sb="0" eb="5">
+      <t>スイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PS4コントローラの場合の設定値</t>
+    <rPh sb="10" eb="12">
+      <t>バア</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpeedController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平速度制御</t>
+    <rPh sb="0" eb="1">
+      <t>スイヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARAM_MAX_PITCH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARAM_MAX_ROLL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール角度の上限値</t>
+    <rPh sb="3" eb="5">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピッチ角度の上限値</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_VX_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_VX_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_VX_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_VY_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_VY_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_VY_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y速度制御Dパラメータ</t>
+    <rPh sb="1" eb="3">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y速度制御Iパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y速度制御Pパラメータ</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">１ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X速度制御Dパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X速度制御Iパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X速度制御Pパラメータ</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">１ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RadioController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run_thrust_control()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>THROTTLE_GAIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AltitudeController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推力変換する</t>
+    <rPh sb="0" eb="2">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高度制御の出力値を推力に変換する。
+変換式：
+推力＝機体質量×重力加速度＋
+　　　　　THROTTLE_GAIN×高度制御の出力値</t>
+    <rPh sb="0" eb="1">
+      <t>コウド</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンカn</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ヘn</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>スイリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t xml:space="preserve">カソクド </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>スイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run_angular_control()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run_angular_rate_control()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARAM_H_RPM_MAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARAM_H_ANGLE_RATE_MAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_ROLL_RATE_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_ROLL_RATE_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_ROLL_RATE_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_PITCH_RATE_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_PITCH_RATE_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_PITCH_RATE_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_YAW_RATE_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_YAW_RATE_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_YAW_RATE_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姿勢制御</t>
+    <rPh sb="0" eb="4">
+      <t>シセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_ROLL_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_ROLL_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_ROLL_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_PITCH_Kp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_PITCH_Ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARM_PITCH_Kd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール制御Pパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール速度制御Iパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール速度制御Dパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピッチ制御Pパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピッチ速度制御Iパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピッチ速度制御Dパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARAM_YAW_RPM_MAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID_PARAM_YAW_ANGLE_RATE_MAX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標ロール/ピッチ角速度(RPM)の上限値</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ジョウゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール/ピッチ・トルクの上限値</t>
+    <rPh sb="12" eb="15">
+      <t>ジョウゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨー・トルクの上限値</t>
+    <rPh sb="6" eb="7">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジョウゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標ヨー角速度(RPM)の上限値</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ジョウゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール角速度制御Pパラメータ</t>
+    <rPh sb="3" eb="4">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール角速度制御Iパラメータ</t>
+    <rPh sb="3" eb="4">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール角速度制御Dパラメータ</t>
+    <rPh sb="3" eb="4">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピッチ角速度制御Pパラメータ</t>
+    <rPh sb="3" eb="4">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピッチ角速度制御Iパラメータ</t>
+    <rPh sb="3" eb="4">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピッチ角速度制御Dパラメータ</t>
+    <rPh sb="3" eb="4">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨー角速度制御Pパラメータ</t>
+    <rPh sb="2" eb="3">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨー角速度制御Iパラメータ</t>
+    <rPh sb="3" eb="4">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨー角速度制御Dパラメータ</t>
+    <rPh sb="3" eb="4">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M_PI/4.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M_PI/1000.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角速度制御</t>
+    <rPh sb="0" eb="3">
+      <t>カクソク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,8 +875,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,13 +896,71 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -82,12 +969,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5908,6 +6825,582 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>832556</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>155222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>592666</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7C2F35-BBD4-AF3F-615E-F33BD071EBE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543778" y="4219222"/>
+          <a:ext cx="719666" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>33.3Hz</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434623</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194733</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>81845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09EF624-DA5D-7B49-A3D1-C6EA5C402AE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6064956" y="6968067"/>
+          <a:ext cx="719666" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>33.3Hz</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191910</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69D6457-1ABC-074A-BCE9-567C28FBB395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981244" y="5384800"/>
+          <a:ext cx="719666" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>33.3Hz</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>663222</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423332</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E380E76-56AC-C847-BBBE-2B5C1FA1CC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11091333" y="7916333"/>
+          <a:ext cx="719666" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>33.3Hz</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>251178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>818444</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>222956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836364C8-E923-944F-8C40-5E0593318EFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15180733" y="7871178"/>
+          <a:ext cx="863600" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>333.3Hz</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>843844</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>149578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B088C00-01CD-0840-BF9D-F0020B580BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20003911" y="7797800"/>
+          <a:ext cx="863600" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>333.3Hz</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428978</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479778</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>174978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0018071C-F6F2-1541-85C7-50E25988FF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12776200" y="5283200"/>
+          <a:ext cx="1010356" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>333.3Hz</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>471311</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>375355</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31356099-F692-B646-88FC-773DACF011A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23373644" y="8020756"/>
+          <a:ext cx="863600" cy="479778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>333.3Hz</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6232,8 +7725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA5866C-C199-A54E-AB69-CAF0AEF3B7A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6246,4 +7739,1047 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B3CEAE-EB59-754E-ACDE-AD535613206A}">
+  <dimension ref="B2:J45"/>
+  <sheetViews>
+    <sheetView zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="5">
+        <v>100</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="5">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="5">
+        <v>20</v>
+      </c>
+      <c r="J20" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="5">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="5">
+        <v>20</v>
+      </c>
+      <c r="J23" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="5">
+        <v>8</v>
+      </c>
+      <c r="J24" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="5">
+        <v>8</v>
+      </c>
+      <c r="J25" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="76" customHeight="1">
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="5">
+        <v>10</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="5">
+        <v>20</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="5">
+        <v>20</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="5">
+        <v>20</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="5">
+        <v>20</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="20" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="5">
+        <v>20</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="5">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="5">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="5">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="5">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="D33:D45"/>
+    <mergeCell ref="E33:E45"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="B33:B45"/>
+    <mergeCell ref="C33:C45"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E7:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/drone_control/data-flow.xlsx
+++ b/docs/drone_control/data-flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmori/project/oss/hakoniwa-px4sim/docs/drone_control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9821F3F-9C33-A046-A24D-D9AFA3462ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8F64C9F6-CAC9-024C-AD2E-72E0127DD083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7660" yWindow="-28300" windowWidth="51200" windowHeight="26800" xr2:uid="{04AAAEE0-CBA9-B946-A6FA-4BC89A99C738}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Param" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -726,10 +727,7 @@
   <si>
     <t>ヨー・トルクの上限値</t>
     <rPh sb="6" eb="7">
-      <t>カクソク</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ジョウゲ</t>
+      <t>カクソクジョウゲ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -991,20 +989,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7726,7 +7724,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7746,7 +7744,7 @@
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -7794,16 +7792,16 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -7823,10 +7821,10 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
@@ -7844,10 +7842,10 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
@@ -7865,10 +7863,10 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
@@ -7886,16 +7884,16 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -7915,10 +7913,10 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
@@ -7936,10 +7934,10 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
@@ -7957,10 +7955,10 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
@@ -7978,10 +7976,10 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
@@ -7999,10 +7997,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
@@ -8020,10 +8018,10 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
@@ -8041,16 +8039,16 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -8070,10 +8068,10 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="5" t="s">
         <v>19</v>
       </c>
@@ -8091,10 +8089,10 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
@@ -8112,10 +8110,10 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
         <v>20</v>
       </c>
@@ -8133,16 +8131,16 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -8162,10 +8160,10 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="5" t="s">
         <v>19</v>
       </c>
@@ -8183,10 +8181,10 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="5" t="s">
         <v>19</v>
       </c>
@@ -8204,10 +8202,10 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="5" t="s">
         <v>19</v>
       </c>
@@ -8225,10 +8223,10 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="5" t="s">
         <v>19</v>
       </c>
@@ -8246,10 +8244,10 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="5" t="s">
         <v>19</v>
       </c>
@@ -8267,10 +8265,10 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="5" t="s">
         <v>20</v>
       </c>
@@ -8288,10 +8286,10 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="5" t="s">
         <v>20</v>
       </c>
@@ -8327,7 +8325,7 @@
       <c r="G26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="7" t="s">
         <v>81</v>
       </c>
       <c r="I26" s="5">
@@ -8338,16 +8336,16 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -8367,10 +8365,10 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="5" t="s">
         <v>19</v>
       </c>
@@ -8388,10 +8386,10 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="5" t="s">
         <v>19</v>
       </c>
@@ -8409,10 +8407,10 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="5" t="s">
         <v>19</v>
       </c>
@@ -8430,10 +8428,10 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="5" t="s">
         <v>19</v>
       </c>
@@ -8451,17 +8449,17 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="9" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="6" t="s">
         <v>107</v>
       </c>
       <c r="I32" s="5">
@@ -8472,16 +8470,16 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="20" customHeight="1">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="8" t="s">
         <v>83</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -8501,10 +8499,10 @@
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
@@ -8522,10 +8520,10 @@
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="2" t="s">
         <v>19</v>
       </c>
@@ -8543,10 +8541,10 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="2" t="s">
         <v>19</v>
       </c>
@@ -8564,10 +8562,10 @@
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="2" t="s">
         <v>19</v>
       </c>
@@ -8585,10 +8583,10 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="2" t="s">
         <v>19</v>
       </c>
@@ -8606,10 +8604,10 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="2" t="s">
         <v>19</v>
       </c>
@@ -8627,10 +8625,10 @@
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="2" t="s">
         <v>19</v>
       </c>
@@ -8648,10 +8646,10 @@
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="2" t="s">
         <v>19</v>
       </c>
@@ -8669,10 +8667,10 @@
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="2" t="s">
         <v>19</v>
       </c>
@@ -8690,10 +8688,10 @@
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="2" t="s">
         <v>19</v>
       </c>
@@ -8711,10 +8709,10 @@
       </c>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="2" t="s">
         <v>20</v>
       </c>
@@ -8732,10 +8730,10 @@
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="2" t="s">
         <v>20</v>
       </c>
@@ -8754,14 +8752,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D33:D45"/>
-    <mergeCell ref="E33:E45"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="B33:B45"/>
-    <mergeCell ref="C33:C45"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
@@ -8778,6 +8768,14 @@
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="D7:D13"/>
     <mergeCell ref="E7:E13"/>
+    <mergeCell ref="D33:D45"/>
+    <mergeCell ref="E33:E45"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="B33:B45"/>
+    <mergeCell ref="C33:C45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/drone_control/data-flow.xlsx
+++ b/docs/drone_control/data-flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmori/project/oss/hakoniwa-px4sim/docs/drone_control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{8F64C9F6-CAC9-024C-AD2E-72E0127DD083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529012D0-7B9E-6140-80C7-A5CFC0088C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7660" yWindow="-28300" windowWidth="51200" windowHeight="26800" xr2:uid="{04AAAEE0-CBA9-B946-A6FA-4BC89A99C738}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Param" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -992,9 +991,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1003,6 +999,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5827,8 +5826,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>378952</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>102414</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -5849,8 +5848,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4076291" y="9064108"/>
-          <a:ext cx="7241048" cy="1403146"/>
+          <a:off x="4090174" y="8763000"/>
+          <a:ext cx="7297493" cy="1622319"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6022,15 +6021,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>857375</xdr:colOff>
+      <xdr:colOff>631597</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>12203</xdr:rowOff>
+      <xdr:rowOff>125092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>793876</xdr:colOff>
+      <xdr:colOff>56445</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>33878</xdr:rowOff>
+      <xdr:rowOff>146767</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6045,8 +6044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4554714" y="9485993"/>
-          <a:ext cx="1841501" cy="533772"/>
+          <a:off x="4342819" y="9523092"/>
+          <a:ext cx="1343959" cy="529675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6093,15 +6092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>825626</xdr:colOff>
+      <xdr:colOff>344021</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>115213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>835165</xdr:colOff>
+      <xdr:colOff>835164</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>12203</xdr:rowOff>
+      <xdr:rowOff>125092</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6119,8 +6118,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5475465" y="5492229"/>
-          <a:ext cx="9539" cy="3993764"/>
+          <a:off x="5014799" y="5449213"/>
+          <a:ext cx="491143" cy="4073879"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6222,16 +6221,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>475554</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>26042</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>479778</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>197556</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605190</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6243,13 +6242,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="24" idx="2"/>
+          <a:stCxn id="23" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10903665" y="6376042"/>
-          <a:ext cx="4224" cy="3473514"/>
+          <a:off x="5715000" y="6110111"/>
+          <a:ext cx="520523" cy="2797327"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6614,15 +6613,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>804333</xdr:colOff>
+      <xdr:colOff>344021</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>33878</xdr:rowOff>
+      <xdr:rowOff>146767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>825625</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>225778</xdr:rowOff>
+      <xdr:colOff>776111</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6638,9 +6637,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5475111" y="9939878"/>
-          <a:ext cx="21292" cy="1207900"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5014799" y="10052767"/>
+          <a:ext cx="432090" cy="1236122"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6669,15 +6668,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>493889</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>239889</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>479778</xdr:colOff>
+      <xdr:colOff>605190</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>39113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:rowOff>155222</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6688,12 +6687,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6124222" y="9891889"/>
-          <a:ext cx="4783667" cy="1834444"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6235523" y="9437113"/>
+          <a:ext cx="29810" cy="2402109"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7396,6 +7397,77 @@
             <a:t>333.3Hz</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>928158</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>282221</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>39113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA6178F-803B-4D4D-9632-1C10AD833A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5598936" y="8907438"/>
+          <a:ext cx="1273174" cy="529675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Target Yaw</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7724,7 +7796,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="Z58" sqref="Z58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7792,16 +7864,16 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -7821,10 +7893,10 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
@@ -7842,10 +7914,10 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
@@ -7863,10 +7935,10 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
@@ -7884,16 +7956,16 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -7913,10 +7985,10 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
@@ -7934,10 +8006,10 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
@@ -7955,10 +8027,10 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
@@ -7976,10 +8048,10 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
@@ -7997,10 +8069,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
@@ -8018,10 +8090,10 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
@@ -8039,16 +8111,16 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -8068,10 +8140,10 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="5" t="s">
         <v>19</v>
       </c>
@@ -8089,10 +8161,10 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
@@ -8110,10 +8182,10 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="5" t="s">
         <v>20</v>
       </c>
@@ -8131,16 +8203,16 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -8160,10 +8232,10 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="5" t="s">
         <v>19</v>
       </c>
@@ -8181,10 +8253,10 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="5" t="s">
         <v>19</v>
       </c>
@@ -8202,10 +8274,10 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="5" t="s">
         <v>19</v>
       </c>
@@ -8223,10 +8295,10 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="5" t="s">
         <v>19</v>
       </c>
@@ -8244,10 +8316,10 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="5" t="s">
         <v>19</v>
       </c>
@@ -8265,10 +8337,10 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="5" t="s">
         <v>20</v>
       </c>
@@ -8286,10 +8358,10 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="5" t="s">
         <v>20</v>
       </c>
@@ -8336,16 +8408,16 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>82</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -8365,10 +8437,10 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="5" t="s">
         <v>19</v>
       </c>
@@ -8386,10 +8458,10 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="5" t="s">
         <v>19</v>
       </c>
@@ -8407,10 +8479,10 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="5" t="s">
         <v>19</v>
       </c>
@@ -8428,10 +8500,10 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="5" t="s">
         <v>19</v>
       </c>
@@ -8449,10 +8521,10 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="6" t="s">
         <v>19</v>
       </c>
@@ -8470,16 +8542,16 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="20" customHeight="1">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -8499,10 +8571,10 @@
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
@@ -8520,10 +8592,10 @@
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="2" t="s">
         <v>19</v>
       </c>
@@ -8541,10 +8613,10 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="2" t="s">
         <v>19</v>
       </c>
@@ -8562,10 +8634,10 @@
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="2" t="s">
         <v>19</v>
       </c>
@@ -8583,10 +8655,10 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="2" t="s">
         <v>19</v>
       </c>
@@ -8604,10 +8676,10 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="2" t="s">
         <v>19</v>
       </c>
@@ -8625,10 +8697,10 @@
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="2" t="s">
         <v>19</v>
       </c>
@@ -8646,10 +8718,10 @@
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="2" t="s">
         <v>19</v>
       </c>
@@ -8667,10 +8739,10 @@
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="2" t="s">
         <v>19</v>
       </c>
@@ -8688,10 +8760,10 @@
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="2" t="s">
         <v>19</v>
       </c>
@@ -8709,10 +8781,10 @@
       </c>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="2" t="s">
         <v>20</v>
       </c>
@@ -8730,10 +8802,10 @@
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="2" t="s">
         <v>20</v>
       </c>
@@ -8752,6 +8824,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D33:D45"/>
+    <mergeCell ref="E33:E45"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="B33:B45"/>
+    <mergeCell ref="C33:C45"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
@@ -8768,14 +8848,6 @@
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="D7:D13"/>
     <mergeCell ref="E7:E13"/>
-    <mergeCell ref="D33:D45"/>
-    <mergeCell ref="E33:E45"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="B33:B45"/>
-    <mergeCell ref="C33:C45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
